--- a/Impacted_Modules_List.xlsx
+++ b/Impacted_Modules_List.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -388,9 +388,19 @@
         <v>Module Name</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>MISC</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>RN_LIBRARIES</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:A3"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Impacted_Modules_List.xlsx
+++ b/Impacted_Modules_List.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -388,19 +388,9 @@
         <v>Module Name</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>MISC</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>RN_LIBRARIES</v>
-      </c>
-    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:A3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1"/>
   </ignoredErrors>
 </worksheet>
 </file>